--- a/Excel/J技能.xlsx
+++ b/Excel/J技能.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CFD886-90EB-41A7-A85D-CB09B681F492}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B22E90-0DB1-4C93-A0DB-6EF710BEBDC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9BAD4697-B533-40DD-8E6D-16C6CB7A0382}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{9BAD4697-B533-40DD-8E6D-16C6CB7A0382}">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>技能名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>力:1,疾:2,御:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +149,66 @@
   </si>
   <si>
     <t>疾:0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开场冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化骨绵掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾:1,毒:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力:0.5,毒:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒.1.3.100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力:5,疾:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力:3,疾:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力:1,御:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力:2,疾:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力:5,毒:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,20 +542,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -513,16 +574,28 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -535,14 +608,26 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
+      <c r="K2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -553,16 +638,28 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -573,16 +670,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -593,16 +702,28 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -613,13 +734,60 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
         <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
